--- a/포트폴리오/DX_포트폴리오/11. 제안 전략 수립/양식1.xlsx
+++ b/포트폴리오/DX_포트폴리오/11. 제안 전략 수립/양식1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\program\포트폴리오\DX_포트폴리오\11. 제안 전략 수립\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F55D1981-9864-4077-B22C-BBBE9526F69D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C23520-E673-4BC6-AC53-FF0FBDE5E8D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{FF376599-6347-4767-BA58-5B6F98A940C7}"/>
   </bookViews>
@@ -25,24 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>산업 :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>콘텐츠 플렛폼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대표기업:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네이버 웹툰, 문피아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,30 +59,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 잦은 휴제
-2. 퀄리티가 낮아짐
-3. 떡밥 회수 못함
-4. 설정 붕괴(작붕)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐색형 문제
--&gt; 작가와 플렛폼 또는 편집자
-개선방안 중심으로 To-Be</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 잦은 휴제로 인해 작품 이탈
-2. 퀄리티가 낮아짐에 의해 작품 이탈
-3. 이탈로 인해 IP 확장 어려움
-4. 작품의 IP에 대해 거부감이 생김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 작가의 작품 이해도를 높임
-2. 작품의 설정의 이해도를 높임
-3. 편집자와 작가의 로드맵
-4. 독자와 설정 관련 듣기</t>
+    <t>사회보장 행정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산림청, 119, 112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탐색형 문제
+-&gt; 개선방안 중심으로 To-Be
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 산악 화제
+2. 실시간 모니터링 어려움
+3. 인력 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 화제를 발견 및 신고가 늦어짐
+2. 환경오염
+3. 화제 진압을 위한 많은 비용 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 주기적으로 드론으로 탐색
+2. 화제 발견 시 자동으로 119 자동으로 전송
+3. 효율적인 화제 진압 계산하여 조기 진압</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제를 변경하신 것 같습니다.
+주제가 선정되더라도 과제에 적합한 주제로 범위를 설정하는 것(개념화,규범화)도 과제를 수행하는데 많은 도움이 됩니다.
+산림청과 119, 112는 각각의 업무영역에 많은 차이를 가지고 있으나,
+현재 작성하신 과제로 추정하여 보나면, 자연환경에서 방화 등의 화재 발생시, 
+원인발견(112-방화원인(예. 범인색출 및 검거 등), 화재진압 및 구조(119), 피해 최소화 및 산림복원(산림청) 등의 각각의 역할로 고민해 보신 것은 아닌가 추정해 봅니다.
+이 경우 각각의 조직별 역할과 연계를 통하여 빠르고 신속한 대응을 높이는 방법을 KT에서도 제시가 가능할 것으로 보여지나, 여러 조직이 연관된 경우 과제수행이 보다 심도있게 관찰되어야 보다 좋은 성과물이 나올 것 같습니다.
+* 119, 112 등은 조직 명칭이 아님으로 정식 명칭으로 변경하는 것을 권유드립니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,17 +159,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -479,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A2DE5F-BB38-4777-A564-71AD32A90287}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -491,72 +504,72 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2"/>
@@ -568,11 +581,11 @@
     </row>
     <row r="7" spans="1:9" ht="64.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -581,8 +594,44 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="214.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A9:I11"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C5:F5"/>
